--- a/Bex Models 11012025 2003.xlsx
+++ b/Bex Models 11012025 2003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maki/Desktop/Master Thesis/BEX 2223 Master Thesis Maung Kyaw/IVPToleranceBex2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FE1431B-705A-BB40-993D-69E2F2E99DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576D6537-EB63-7C45-A274-60048695F663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E3E5E017-3FD5-8045-A68A-E8C8152EDB19}"/>
   </bookViews>
@@ -435,7 +435,7 @@
     <r>
       <rPr>
         <i/>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -445,7 +445,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -456,7 +456,7 @@
     <r>
       <rPr>
         <i/>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -466,7 +466,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -480,7 +480,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -503,8 +503,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -512,8 +510,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -530,8 +529,48 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
-      <sz val="10"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1310,7 +1349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1319,319 +1358,355 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1952,1079 +2027,1109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53933169-F6A8-B149-A774-197A5997137F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A1:N25"/>
+      <selection activeCell="A21" sqref="A1:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" customWidth="1"/>
+    <col min="5" max="5" width="40.1640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="14" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" customWidth="1"/>
     <col min="9" max="9" width="10.1640625" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" customWidth="1"/>
-    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" style="2" customWidth="1"/>
-    <col min="14" max="16" width="12.83203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.1640625" style="2" customWidth="1"/>
+    <col min="15" max="16" width="12.83203125" style="2" customWidth="1"/>
     <col min="17" max="17" width="154.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="90.83203125" customWidth="1"/>
     <col min="19" max="19" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
     </row>
-    <row r="2" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="55"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
+    <row r="2" spans="1:18" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="117"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
     </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="82" t="s">
+    <row r="3" spans="1:18" s="6" customFormat="1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="112" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="83" t="s">
+      <c r="K3" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="L3" s="83" t="s">
+      <c r="L3" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="83" t="s">
+      <c r="M3" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="84" t="s">
+      <c r="N3" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="23" t="s">
+      <c r="O3" s="11"/>
+      <c r="P3" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="85">
+      <c r="B4" s="21">
         <v>13</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="109" t="s">
+      <c r="J4" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="125" t="s">
+      <c r="L4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="110">
+      <c r="M4" s="29">
         <v>0</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="19" t="s">
+      <c r="O4" s="10"/>
+      <c r="P4" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="86">
+      <c r="B5" s="31">
         <v>13</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="102" t="s">
+      <c r="F5" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="94" t="s">
+      <c r="G5" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="111" t="s">
+      <c r="J5" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="72" t="s">
+      <c r="K5" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="126" t="s">
+      <c r="L5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="112">
+      <c r="M5" s="39">
         <v>0</v>
       </c>
-      <c r="N5" s="73" t="s">
+      <c r="N5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="19" t="s">
+      <c r="O5" s="10"/>
+      <c r="P5" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R5" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="87">
+      <c r="B6" s="41">
         <v>14</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="103" t="s">
+      <c r="F6" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="G6" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="113" t="s">
+      <c r="J6" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="66" t="s">
+      <c r="K6" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="127" t="s">
+      <c r="L6" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="114">
+      <c r="M6" s="49">
         <v>0</v>
       </c>
-      <c r="N6" s="67" t="s">
+      <c r="N6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="19" t="s">
+      <c r="O6" s="10"/>
+      <c r="P6" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="88">
+      <c r="B7" s="51">
         <v>14</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="115" t="s">
+      <c r="J7" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="128">
+      <c r="L7" s="59">
         <v>1362143</v>
       </c>
-      <c r="M7" s="116">
+      <c r="M7" s="59">
         <v>0</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="N7" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="19" t="s">
+      <c r="O7" s="10"/>
+      <c r="P7" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="R7" s="20" t="s">
+      <c r="R7" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="26" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="89">
+      <c r="B8" s="61">
         <v>15</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="105" t="s">
+      <c r="F8" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="97" t="s">
+      <c r="G8" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="117" t="s">
+      <c r="J8" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="38" t="s">
+      <c r="K8" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="129" t="s">
+      <c r="L8" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="118">
+      <c r="M8" s="69">
         <v>0</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="19" t="s">
+      <c r="O8" s="10"/>
+      <c r="P8" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="R8" s="20" t="s">
+      <c r="R8" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="90">
+      <c r="B9" s="71">
         <v>16</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="106" t="s">
+      <c r="F9" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="98" t="s">
+      <c r="G9" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="79" t="s">
+      <c r="I9" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="119" t="s">
+      <c r="J9" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="43" t="s">
+      <c r="K9" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="130">
+      <c r="L9" s="79">
         <v>2074945</v>
       </c>
-      <c r="M9" s="120">
+      <c r="M9" s="79">
         <v>1</v>
       </c>
-      <c r="N9" s="44" t="s">
+      <c r="N9" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="19" t="s">
+      <c r="O9" s="10"/>
+      <c r="P9" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="R9" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="90">
+      <c r="B10" s="71">
         <v>14</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="106" t="s">
+      <c r="F10" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="98" t="s">
+      <c r="G10" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="79" t="s">
+      <c r="I10" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="119" t="s">
+      <c r="J10" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="43" t="s">
+      <c r="K10" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="130" t="s">
+      <c r="L10" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="120">
+      <c r="M10" s="79">
         <v>0</v>
       </c>
-      <c r="N10" s="44" t="s">
+      <c r="N10" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="19" t="s">
+      <c r="O10" s="10"/>
+      <c r="P10" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="R10" s="20" t="s">
+      <c r="R10" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="90">
+      <c r="B11" s="71">
         <v>14</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="106" t="s">
+      <c r="D11" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="F11" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="98" t="s">
+      <c r="G11" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="79" t="s">
+      <c r="I11" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="119" t="s">
+      <c r="J11" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="130" t="s">
+      <c r="L11" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="120">
+      <c r="M11" s="79">
         <v>1</v>
       </c>
-      <c r="N11" s="44" t="s">
+      <c r="N11" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="19" t="s">
+      <c r="O11" s="10"/>
+      <c r="P11" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="R11" s="20" t="s">
+      <c r="R11" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="90">
+      <c r="B12" s="71">
         <v>22</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="106" t="s">
+      <c r="D12" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="106" t="s">
+      <c r="F12" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="98" t="s">
+      <c r="G12" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="79" t="s">
+      <c r="I12" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="119" t="s">
+      <c r="J12" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="43" t="s">
+      <c r="K12" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="130" t="s">
+      <c r="L12" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="M12" s="120">
+      <c r="M12" s="79">
         <v>6</v>
       </c>
-      <c r="N12" s="44" t="s">
+      <c r="N12" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="19" t="s">
+      <c r="O12" s="10"/>
+      <c r="P12" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="R12" s="20" t="s">
+      <c r="R12" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
+    <row r="13" spans="1:18" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="91">
+      <c r="B13" s="81">
         <v>13</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="107" t="s">
+      <c r="F13" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="99" t="s">
+      <c r="G13" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="80" t="s">
+      <c r="I13" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="121" t="s">
+      <c r="J13" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="50" t="s">
+      <c r="K13" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="131" t="s">
+      <c r="L13" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="122">
+      <c r="M13" s="89">
         <v>2</v>
       </c>
-      <c r="N13" s="51" t="s">
+      <c r="N13" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="16"/>
-      <c r="P13" s="19" t="s">
+      <c r="O13" s="10"/>
+      <c r="P13" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="R13" s="20" t="s">
+      <c r="R13" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
+    <row r="14" spans="1:18" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="90">
+      <c r="B14" s="71">
         <v>11</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="106" t="s">
+      <c r="D14" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="106" t="s">
+      <c r="F14" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="98" t="s">
+      <c r="G14" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="79" t="s">
+      <c r="I14" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="119" t="s">
+      <c r="J14" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="43" t="s">
+      <c r="K14" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="130" t="s">
+      <c r="L14" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="120">
+      <c r="M14" s="79">
         <v>2</v>
       </c>
-      <c r="N14" s="44" t="s">
+      <c r="N14" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="O14" s="16"/>
-      <c r="P14" s="19" t="s">
+      <c r="O14" s="10"/>
+      <c r="P14" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="R14" s="20" t="s">
+      <c r="R14" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:18" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="90">
+      <c r="B15" s="71">
         <v>15</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="106" t="s">
+      <c r="D15" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="106" t="s">
+      <c r="F15" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="98" t="s">
+      <c r="G15" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="79" t="s">
+      <c r="I15" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="119" t="s">
+      <c r="J15" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="43" t="s">
+      <c r="K15" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="130" t="s">
+      <c r="L15" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="120">
+      <c r="M15" s="79">
         <v>1</v>
       </c>
-      <c r="N15" s="44" t="s">
+      <c r="N15" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="16"/>
-      <c r="P15" s="19" t="s">
+      <c r="O15" s="10"/>
+      <c r="P15" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="R15" s="20" t="s">
+      <c r="R15" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
+    <row r="16" spans="1:18" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="91">
+      <c r="B16" s="81">
         <v>11</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="107" t="s">
+      <c r="D16" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="107" t="s">
+      <c r="F16" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="99" t="s">
+      <c r="G16" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="48" t="s">
+      <c r="H16" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="80" t="s">
+      <c r="I16" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="121" t="s">
+      <c r="J16" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="50" t="s">
+      <c r="K16" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="132" t="s">
+      <c r="L16" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="122">
+      <c r="M16" s="89">
         <v>0</v>
       </c>
-      <c r="N16" s="51" t="s">
+      <c r="N16" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="19" t="s">
+      <c r="O16" s="10"/>
+      <c r="P16" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="R16" s="20" t="s">
+      <c r="R16" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
+    <row r="17" spans="1:18" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="90">
+      <c r="B17" s="71">
         <v>11</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="106" t="s">
+      <c r="D17" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="106" t="s">
+      <c r="F17" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="98" t="s">
+      <c r="G17" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="79" t="s">
+      <c r="I17" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="119" t="s">
+      <c r="J17" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="43" t="s">
+      <c r="K17" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="130" t="s">
+      <c r="L17" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="M17" s="120">
+      <c r="M17" s="79">
         <v>0</v>
       </c>
-      <c r="N17" s="44" t="s">
+      <c r="N17" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="O17" s="16"/>
-      <c r="P17" s="19" t="s">
+      <c r="O17" s="10"/>
+      <c r="P17" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="R17" s="20" t="s">
+      <c r="R17" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:18" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="90">
+      <c r="B18" s="71">
         <v>8</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="106" t="s">
+      <c r="D18" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="106"/>
-      <c r="G18" s="98" t="s">
+      <c r="F18" s="73"/>
+      <c r="G18" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="41" t="s">
+      <c r="H18" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="79" t="s">
+      <c r="I18" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="119" t="s">
+      <c r="J18" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="43" t="s">
+      <c r="K18" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="130" t="s">
+      <c r="L18" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="120"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="19" t="s">
+      <c r="M18" s="79"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="Q18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="R18" s="20" t="s">
+      <c r="R18" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:18" s="2" customFormat="1" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="92">
+      <c r="B19" s="91">
         <v>9</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="108" t="s">
+      <c r="D19" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="108" t="s">
+      <c r="F19" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="100" t="s">
+      <c r="G19" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="I19" s="81" t="s">
+      <c r="I19" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="123" t="s">
+      <c r="J19" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="133">
+      <c r="L19" s="99">
         <v>1604147</v>
       </c>
-      <c r="M19" s="124">
+      <c r="M19" s="99">
         <v>1</v>
       </c>
-      <c r="N19" s="14" t="s">
+      <c r="N19" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="O19" s="16"/>
-      <c r="P19" s="21" t="s">
+      <c r="O19" s="10"/>
+      <c r="P19" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="Q19" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="R19" s="22" t="s">
+      <c r="R19" s="19" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="3"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
     </row>
     <row r="21" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="134" t="s">
+      <c r="A21" s="120" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="134"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="134"/>
-      <c r="K21" s="134"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="134"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="134"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="134"/>
-      <c r="N22" s="134"/>
+    <row r="22" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="120"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="134"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="134"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="134"/>
+    <row r="23" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="120"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="120"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="134"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="134"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="134"/>
+    <row r="24" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="120"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="134"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="134"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="134"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
-      <c r="N25" s="134"/>
+    <row r="25" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="120"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="120"/>
+      <c r="N25" s="120"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D26"/>
+      <c r="A26" s="120"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="120"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D27"/>
+      <c r="A27" s="120"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D28"/>
@@ -3043,9 +3148,10 @@
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="B1:N2"/>
-    <mergeCell ref="A21:N25"/>
+    <mergeCell ref="A21:N27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>